--- a/results/Preliminaries-Malta.xlsx
+++ b/results/Preliminaries-Malta.xlsx
@@ -53,10 +53,10 @@
     <t>2017</t>
   </si>
   <si>
-    <t>MLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PN </t>
+    <t>MLP - Malta Labour Party (Partit Laburista, MLP)</t>
+  </si>
+  <si>
+    <t>PN - Nationalist Party (Partit Nazzjonalista, PN)</t>
   </si>
   <si>
     <t>Key</t>
@@ -74,7 +74,7 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t xml:space="preserve">MLP+PN </t>
+    <t>MLP - Malta Labour Party (Partit Laburista, MLP)+PN - Nationalist Party (Partit Nazzjonalista, PN)</t>
   </si>
 </sst>
 </file>
